--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-50/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-50/curvature_data.xlsx
@@ -379,156 +379,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>57070.563193</v>
+        <v>57034.363191</v>
       </c>
       <c r="B2">
-        <v>-8.153237473799999e-05</v>
+        <v>-3.2422421282e-06</v>
       </c>
       <c r="C2">
-        <v>-0.00036044991622</v>
+        <v>-8.707349760600001e-06</v>
       </c>
       <c r="D2">
-        <v>-0.0001933029678</v>
+        <v>-2.4915333007e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57112.163195</v>
+        <v>57046.031192</v>
       </c>
       <c r="B3">
-        <v>-9.6978917629e-05</v>
+        <v>-6.6157834425e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00035120831059</v>
+        <v>-9.6710380647e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00020319603157</v>
+        <v>-0.00010499781355</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57147.963197</v>
+        <v>57059.299192</v>
       </c>
       <c r="B4">
-        <v>-9.245939921800001e-06</v>
+        <v>-7.372849520099999e-05</v>
       </c>
       <c r="C4">
-        <v>-1.3298685729e-05</v>
+        <v>-0.00022851370616</v>
       </c>
       <c r="D4">
-        <v>-2.5306092296e-05</v>
+        <v>-0.00015041768697</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>57081.963193</v>
+        <v>57070.563193</v>
       </c>
       <c r="B5">
-        <v>-0.0001228416</v>
+        <v>-8.153237473799999e-05</v>
       </c>
       <c r="C5">
-        <v>-0.0004886953</v>
+        <v>-0.00036044991622</v>
       </c>
       <c r="D5">
-        <v>-0.0002440999</v>
+        <v>-0.0001933029678</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57136.031196</v>
+        <v>57081.963193</v>
       </c>
       <c r="B6">
-        <v>-2.6573538511e-05</v>
+        <v>-0.0001228416</v>
       </c>
       <c r="C6">
-        <v>-7.3390219873e-05</v>
+        <v>-0.0004886953</v>
       </c>
       <c r="D6">
-        <v>-0.00010844868675</v>
+        <v>-0.0002440999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>57102.299194</v>
+        <v>57091.831194</v>
       </c>
       <c r="B7">
-        <v>-0.000146344</v>
+        <v>-0.0001927213</v>
       </c>
       <c r="C7">
-        <v>-0.0004822301</v>
+        <v>-0.0006102247000000001</v>
       </c>
       <c r="D7">
-        <v>-0.0002532177</v>
+        <v>-0.0003006622</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57034.363191</v>
+        <v>57102.299194</v>
       </c>
       <c r="B8">
-        <v>-3.2422421282e-06</v>
+        <v>-0.000146344</v>
       </c>
       <c r="C8">
-        <v>-8.707349760600001e-06</v>
+        <v>-0.0004822301</v>
       </c>
       <c r="D8">
-        <v>-2.4915333007e-05</v>
+        <v>-0.0002532177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>57123.231195</v>
+        <v>57112.163195</v>
       </c>
       <c r="B9">
-        <v>-4.4424733057e-05</v>
+        <v>-9.6978917629e-05</v>
       </c>
       <c r="C9">
-        <v>-0.00022768781771</v>
+        <v>-0.00035120831059</v>
       </c>
       <c r="D9">
-        <v>-0.00014148830698</v>
+        <v>-0.00020319603157</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>57059.299192</v>
+        <v>57123.231195</v>
       </c>
       <c r="B10">
-        <v>-7.372849520099999e-05</v>
+        <v>-4.4424733057e-05</v>
       </c>
       <c r="C10">
-        <v>-0.00022851370616</v>
+        <v>-0.00022768781771</v>
       </c>
       <c r="D10">
-        <v>-0.00015041768697</v>
+        <v>-0.00014148830698</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>57046.031192</v>
+        <v>57136.031196</v>
       </c>
       <c r="B11">
-        <v>-6.6157834425e-05</v>
+        <v>-2.6573538511e-05</v>
       </c>
       <c r="C11">
-        <v>-9.6710380647e-05</v>
+        <v>-7.3390219873e-05</v>
       </c>
       <c r="D11">
-        <v>-0.00010499781355</v>
+        <v>-0.00010844868675</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>57091.831194</v>
+        <v>57147.963197</v>
       </c>
       <c r="B12">
-        <v>-0.0001927213</v>
+        <v>-9.245939921800001e-06</v>
       </c>
       <c r="C12">
-        <v>-0.0006102247000000001</v>
+        <v>-1.3298685729e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0003006622</v>
+        <v>-2.5306092296e-05</v>
       </c>
     </row>
   </sheetData>
